--- a/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-comparison-studies-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
